--- a/penn_shots.xlsx
+++ b/penn_shots.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Data/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF96766-B1FE-8848-8E38-51577896B5CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D798873F-D4C9-EE45-AB8A-D83711242D0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13640" yWindow="460" windowWidth="12900" windowHeight="14660" xr2:uid="{5A83FA8F-A378-1B4B-BC48-8BF3A65EEFC1}"/>
+    <workbookView xWindow="12700" yWindow="460" windowWidth="12900" windowHeight="14660" xr2:uid="{5A83FA8F-A378-1B4B-BC48-8BF3A65EEFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85667A7B-D11B-364F-AD76-E8580AC2BDD4}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -514,8 +514,8 @@
         <v>-35.625</v>
       </c>
       <c r="E2">
-        <f>(C2*12) + 150</f>
-        <v>168</v>
+        <f>(C2*12) + 165</f>
+        <v>183</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -545,8 +545,8 @@
         <v>-22.5</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E35" si="1">(C3*12) + 150</f>
-        <v>342</v>
+        <f t="shared" ref="E3:E35" si="1">(C3*12) + 165</f>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -577,7 +577,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -608,7 +608,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -639,7 +639,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
         <v>9</v>
@@ -670,7 +670,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -701,7 +701,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -732,7 +732,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
         <v>9</v>
@@ -763,7 +763,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>184.2</v>
+        <v>199.2</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -794,7 +794,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
@@ -825,7 +825,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
@@ -856,7 +856,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
@@ -887,7 +887,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -918,7 +918,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="F15" t="s">
         <v>9</v>
@@ -949,7 +949,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -980,7 +980,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="F17" t="s">
         <v>9</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="F18" t="s">
         <v>9</v>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="F19" t="s">
         <v>9</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>205.2</v>
+        <v>220.2</v>
       </c>
       <c r="F20" t="s">
         <v>9</v>
@@ -1104,7 +1104,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="F21" t="s">
         <v>9</v>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
         <v>13</v>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="F23" t="s">
         <v>13</v>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>328.8</v>
+        <v>343.8</v>
       </c>
       <c r="F24" t="s">
         <v>13</v>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="F25" t="s">
         <v>9</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="F26" t="s">
         <v>14</v>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="1"/>
-        <v>195.6</v>
+        <v>210.6</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="1"/>
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="F29" t="s">
         <v>9</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="1"/>
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="F30" t="s">
         <v>13</v>
@@ -1414,7 +1414,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="1"/>
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="F31" t="s">
         <v>9</v>
@@ -1445,7 +1445,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="1"/>
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="F32" t="s">
         <v>9</v>
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="1"/>
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s">
         <v>13</v>
@@ -1538,7 +1538,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="1"/>
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="F35" t="s">
         <v>13</v>
